--- a/OddLot/data/results-mult-account/mult_failure_no_penalty.xlsx
+++ b/OddLot/data/results-mult-account/mult_failure_no_penalty.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F7C8D8-1CD9-4013-84C1-62D79A225183}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B40B020-A3B9-415A-834F-455F3C58D779}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1718" yWindow="3825" windowWidth="16874" windowHeight="10530" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5% Failure" sheetId="1" r:id="rId1"/>
@@ -352,8 +352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -377,13 +377,13 @@
         <v>2000</v>
       </c>
       <c r="B2">
-        <v>6.6162991799999897</v>
+        <v>6.0472631199999896</v>
       </c>
       <c r="D2">
         <v>2000</v>
       </c>
       <c r="E2">
-        <v>661629.91799999995</v>
+        <v>604726.31199999899</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -391,13 +391,13 @@
         <v>2001</v>
       </c>
       <c r="B3">
-        <v>1.7645819554058</v>
+        <v>0.381412592978364</v>
       </c>
       <c r="D3">
         <v>2001</v>
       </c>
       <c r="E3">
-        <v>1343958.4099999899</v>
+        <v>268791.49</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -405,13 +405,13 @@
         <v>2002</v>
       </c>
       <c r="B4">
-        <v>2.43807504141901</v>
+        <v>1.6334976224708</v>
       </c>
       <c r="D4">
         <v>2002</v>
       </c>
       <c r="E4">
-        <v>5133582.3499999996</v>
+        <v>1590239.0149999999</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -419,13 +419,13 @@
         <v>2003</v>
       </c>
       <c r="B5">
-        <v>0.87552618584917397</v>
+        <v>0.49922000553365498</v>
       </c>
       <c r="D5">
         <v>2003</v>
       </c>
       <c r="E5">
-        <v>6480728.5962499902</v>
+        <v>1296145.7762500001</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -433,13 +433,13 @@
         <v>2004</v>
       </c>
       <c r="B6">
-        <v>0.44125535675946498</v>
+        <v>0.40740971329627101</v>
       </c>
       <c r="D6">
         <v>2004</v>
       </c>
       <c r="E6">
-        <v>6310114.4399999902</v>
+        <v>1632127.1459999899</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -447,13 +447,13 @@
         <v>2005</v>
       </c>
       <c r="B7">
-        <v>0.379278390522299</v>
+        <v>0.34965056142061901</v>
       </c>
       <c r="D7">
         <v>2005</v>
       </c>
       <c r="E7">
-        <v>7817110.9999999898</v>
+        <v>1971411.942</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -461,13 +461,13 @@
         <v>2006</v>
       </c>
       <c r="B8">
-        <v>0.242715597031958</v>
+        <v>0.20167001455945499</v>
       </c>
       <c r="D8">
         <v>2006</v>
       </c>
       <c r="E8">
-        <v>6899820.5649999902</v>
+        <v>1534637.557</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -475,13 +475,13 @@
         <v>2007</v>
       </c>
       <c r="B9">
-        <v>0.44749111454760998</v>
+        <v>0.41053138027984398</v>
       </c>
       <c r="D9">
         <v>2007</v>
       </c>
       <c r="E9">
-        <v>15808704.329999899</v>
+        <v>3754015.6299999901</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
@@ -489,13 +489,13 @@
         <v>2008</v>
       </c>
       <c r="B10">
-        <v>7.6988398412128803E-2</v>
+        <v>6.1045149228401999E-2</v>
       </c>
       <c r="D10">
         <v>2008</v>
       </c>
       <c r="E10">
-        <v>3936887.9312499901</v>
+        <v>787378.64024999901</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
@@ -503,13 +503,13 @@
         <v>2009</v>
       </c>
       <c r="B11">
-        <v>5.1827941587490801E-2</v>
+        <v>4.2037864082417303E-2</v>
       </c>
       <c r="D11">
         <v>2009</v>
       </c>
       <c r="E11">
-        <v>2972174.0424999902</v>
+        <v>594434.98549999797</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
@@ -517,13 +517,13 @@
         <v>2010</v>
       </c>
       <c r="B12">
-        <v>0.43995047634165302</v>
+        <v>0.40225501492845001</v>
       </c>
       <c r="D12">
         <v>2010</v>
       </c>
       <c r="E12">
-        <v>26540036.739999998</v>
+        <v>5927665.4719999898</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -531,13 +531,13 @@
         <v>2011</v>
       </c>
       <c r="B13">
-        <v>0.13914367936511299</v>
+        <v>0.12412529372582</v>
       </c>
       <c r="D13">
         <v>2011</v>
       </c>
       <c r="E13">
-        <v>12086728.4912499</v>
+        <v>2564894.52275</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
@@ -545,13 +545,13 @@
         <v>2012</v>
       </c>
       <c r="B14">
-        <v>0.13455794136806801</v>
+        <v>0.11464076297657801</v>
       </c>
       <c r="D14">
         <v>2012</v>
       </c>
       <c r="E14">
-        <v>13314753.242499899</v>
+        <v>2662949.9785000002</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
@@ -559,13 +559,13 @@
         <v>2013</v>
       </c>
       <c r="B15">
-        <v>0.16352464134585001</v>
+        <v>0.14534319651994601</v>
       </c>
       <c r="D15">
         <v>2013</v>
       </c>
       <c r="E15">
-        <v>18630210.899999902</v>
+        <v>3811494.2880000002</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -573,13 +573,13 @@
         <v>2014</v>
       </c>
       <c r="B16">
-        <v>0.147780588630681</v>
+        <v>0.13404477240336901</v>
       </c>
       <c r="D16">
         <v>2014</v>
       </c>
       <c r="E16">
-        <v>19589689.092500001</v>
+        <v>4026114.1864999901</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
@@ -587,13 +587,13 @@
         <v>2015</v>
       </c>
       <c r="B17">
-        <v>8.5912522846671599E-2</v>
+        <v>8.1905989942326604E-2</v>
       </c>
       <c r="D17">
         <v>2015</v>
       </c>
       <c r="E17">
-        <v>13089038.154999999</v>
+        <v>2793201.4289999902</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
@@ -601,13 +601,13 @@
         <v>2016</v>
       </c>
       <c r="B18">
-        <v>7.2155903388882003E-2</v>
+        <v>6.4709995646663104E-2</v>
       </c>
       <c r="D18">
         <v>2016</v>
       </c>
       <c r="E18">
-        <v>11937626.0725</v>
+        <v>2387522.5804999899</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
@@ -615,13 +615,13 @@
         <v>2017</v>
       </c>
       <c r="B19">
-        <v>8.43269970261495E-2</v>
+        <v>7.6154089372024905E-2</v>
       </c>
       <c r="D19">
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>14957901.84</v>
+        <v>2991580.39</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
@@ -629,13 +629,13 @@
         <v>2018</v>
       </c>
       <c r="B20">
-        <v>3.0471080028005301E-2</v>
+        <v>2.7726882946784801E-2</v>
       </c>
       <c r="D20">
         <v>2018</v>
       </c>
       <c r="E20">
-        <v>5860736.0499999803</v>
+        <v>1172149.368</v>
       </c>
     </row>
   </sheetData>
@@ -652,7 +652,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B20"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -676,13 +676,13 @@
         <v>2000</v>
       </c>
       <c r="B2">
-        <v>5.9886792900000003</v>
+        <v>5.4813202399999996</v>
       </c>
       <c r="D2">
         <v>2000</v>
       </c>
       <c r="E2">
-        <v>598867.929</v>
+        <v>548132.02399999998</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -690,13 +690,13 @@
         <v>2001</v>
       </c>
       <c r="B3">
-        <v>1.8218403609131699</v>
+        <v>0.392889952310086</v>
       </c>
       <c r="D3">
         <v>2001</v>
       </c>
       <c r="E3">
-        <v>1273225.79999999</v>
+        <v>254644.56</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -704,13 +704,13 @@
         <v>2002</v>
       </c>
       <c r="B4">
-        <v>2.3722346566013499</v>
+        <v>1.58565642415909</v>
       </c>
       <c r="D4">
         <v>2002</v>
       </c>
       <c r="E4">
-        <v>4678269.09</v>
+        <v>1431493.49</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -718,13 +718,13 @@
         <v>2003</v>
       </c>
       <c r="B5">
-        <v>0.90226255310981096</v>
+        <v>0.51917754882622602</v>
       </c>
       <c r="D5">
         <v>2003</v>
       </c>
       <c r="E5">
-        <v>6139637.5612500003</v>
+        <v>1227927.62625</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -732,13 +732,13 @@
         <v>2004</v>
       </c>
       <c r="B6">
-        <v>0.42802853390525603</v>
+        <v>0.38953960911384999</v>
       </c>
       <c r="D6">
         <v>2004</v>
       </c>
       <c r="E6">
-        <v>5687259.1399999997</v>
+        <v>1441572.2309999999</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -746,13 +746,13 @@
         <v>2005</v>
       </c>
       <c r="B7">
-        <v>0.36663151702141999</v>
+        <v>0.33719571380442198</v>
       </c>
       <c r="D7">
         <v>2005</v>
       </c>
       <c r="E7">
-        <v>6956599.1099999901</v>
+        <v>1733954.7520000001</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -760,13 +760,13 @@
         <v>2006</v>
       </c>
       <c r="B8">
-        <v>0.24423973943125901</v>
+        <v>0.20292772007898999</v>
       </c>
       <c r="D8">
         <v>2006</v>
       </c>
       <c r="E8">
-        <v>6333371.1749999998</v>
+        <v>1395378.6270000001</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -774,13 +774,13 @@
         <v>2007</v>
       </c>
       <c r="B9">
-        <v>0.43340474006117602</v>
+        <v>0.399944660843921</v>
       </c>
       <c r="D9">
         <v>2007</v>
       </c>
       <c r="E9">
-        <v>13983514.529999999</v>
+        <v>3308187.58</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
@@ -788,13 +788,13 @@
         <v>2008</v>
       </c>
       <c r="B10">
-        <v>8.0645532847725396E-2</v>
+        <v>6.4417103309441601E-2</v>
       </c>
       <c r="D10">
         <v>2008</v>
       </c>
       <c r="E10">
-        <v>3729682.2462499901</v>
+        <v>745937.23024999897</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
@@ -802,13 +802,13 @@
         <v>2009</v>
       </c>
       <c r="B11">
-        <v>5.40120346008394E-2</v>
+        <v>4.4145697452898897E-2</v>
       </c>
       <c r="D11">
         <v>2009</v>
       </c>
       <c r="E11">
-        <v>2815743.7324999999</v>
+        <v>563148.52549999906</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
@@ -816,13 +816,13 @@
         <v>2010</v>
       </c>
       <c r="B12">
-        <v>0.42763701575079299</v>
+        <v>0.39942154711875</v>
       </c>
       <c r="D12">
         <v>2010</v>
       </c>
       <c r="E12">
-        <v>23500002.329999901</v>
+        <v>5320639.5819999902</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -830,13 +830,13 @@
         <v>2011</v>
       </c>
       <c r="B13">
-        <v>0.13712794366293801</v>
+        <v>0.12847666707003699</v>
       </c>
       <c r="D13">
         <v>2011</v>
       </c>
       <c r="E13">
-        <v>10758119.856249999</v>
+        <v>2394998.0802499899</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
@@ -844,13 +844,13 @@
         <v>2012</v>
       </c>
       <c r="B14">
-        <v>0.14139440888426699</v>
+        <v>0.119924647495355</v>
       </c>
       <c r="D14">
         <v>2012</v>
       </c>
       <c r="E14">
-        <v>12613975.512499901</v>
+        <v>2522794.8884999901</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
@@ -858,13 +858,13 @@
         <v>2013</v>
       </c>
       <c r="B15">
-        <v>0.168198155055825</v>
+        <v>0.14884436516903199</v>
       </c>
       <c r="D15">
         <v>2013</v>
       </c>
       <c r="E15">
-        <v>17391731.390000001</v>
+        <v>3553554.318</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -872,13 +872,13 @@
         <v>2014</v>
       </c>
       <c r="B16">
-        <v>0.150808088966849</v>
+        <v>0.13629829598483101</v>
       </c>
       <c r="D16">
         <v>2014</v>
       </c>
       <c r="E16">
-        <v>18216407.9724999</v>
+        <v>3738369.1565</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
@@ -886,13 +886,13 @@
         <v>2015</v>
       </c>
       <c r="B17">
-        <v>8.4712486150536198E-2</v>
+        <v>8.0511672614256194E-2</v>
       </c>
       <c r="D17">
         <v>2015</v>
       </c>
       <c r="E17">
-        <v>11792127.1849999</v>
+        <v>2512358.0789999901</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
@@ -900,13 +900,13 @@
         <v>2016</v>
       </c>
       <c r="B18">
-        <v>7.4899245040031398E-2</v>
+        <v>6.7083357922925593E-2</v>
       </c>
       <c r="D18">
         <v>2016</v>
       </c>
       <c r="E18">
-        <v>11309328.172499901</v>
+        <v>2261866.3805</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
@@ -914,13 +914,13 @@
         <v>2017</v>
       </c>
       <c r="B19">
-        <v>8.7309689640704596E-2</v>
+        <v>7.8771498002544904E-2</v>
       </c>
       <c r="D19">
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>14170643.3799999</v>
+        <v>2834128.9299999899</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
@@ -928,13 +928,13 @@
         <v>2018</v>
       </c>
       <c r="B20">
-        <v>3.1462317550672601E-2</v>
+        <v>2.86101818097775E-2</v>
       </c>
       <c r="D20">
         <v>2018</v>
       </c>
       <c r="E20">
-        <v>5552276.5899999999</v>
+        <v>1110454.0179999899</v>
       </c>
     </row>
   </sheetData>
@@ -951,7 +951,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E20"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -975,13 +975,13 @@
         <v>2000</v>
       </c>
       <c r="B2">
-        <v>4.3437539699999999</v>
+        <v>3.9926603499999902</v>
       </c>
       <c r="D2">
         <v>2000</v>
       </c>
       <c r="E2">
-        <v>434375.397</v>
+        <v>399266.03499999997</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -989,13 +989,13 @@
         <v>2001</v>
       </c>
       <c r="B3">
-        <v>1.98553491788095</v>
+        <v>0.42502953360326201</v>
       </c>
       <c r="D3">
         <v>2001</v>
       </c>
       <c r="E3">
-        <v>1061021.00999999</v>
+        <v>212202.81</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -1003,13 +1003,13 @@
         <v>2002</v>
       </c>
       <c r="B4">
-        <v>2.1479153425221398</v>
+        <v>1.4076073422441899</v>
       </c>
       <c r="D4">
         <v>2002</v>
       </c>
       <c r="E4">
-        <v>3426776.42</v>
+        <v>1001468.77</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -1017,13 +1017,13 @@
         <v>2003</v>
       </c>
       <c r="B5">
-        <v>0.99683350487969902</v>
+        <v>0.58854022765653102</v>
       </c>
       <c r="D5">
         <v>2003</v>
       </c>
       <c r="E5">
-        <v>5006270.1412499901</v>
+        <v>1023272.89124999</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -1031,13 +1031,13 @@
         <v>2004</v>
       </c>
       <c r="B6">
-        <v>0.381641167057028</v>
+        <v>0.34585298077364302</v>
       </c>
       <c r="D6">
         <v>2004</v>
       </c>
       <c r="E6">
-        <v>3883968.4649999901</v>
+        <v>978549.750999999</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -1045,13 +1045,13 @@
         <v>2005</v>
       </c>
       <c r="B7">
-        <v>0.33315177082179998</v>
+        <v>0.30102852845370198</v>
       </c>
       <c r="D7">
         <v>2005</v>
       </c>
       <c r="E7">
-        <v>4684442.05</v>
+        <v>1146295.702</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -1059,13 +1059,13 @@
         <v>2006</v>
       </c>
       <c r="B8">
-        <v>0.25546853074891102</v>
+        <v>0.208762334167758</v>
       </c>
       <c r="D8">
         <v>2006</v>
       </c>
       <c r="E8">
-        <v>4788866.7049999898</v>
+        <v>1034255.817</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -1073,13 +1073,13 @@
         <v>2007</v>
       </c>
       <c r="B9">
-        <v>0.37940104918865197</v>
+        <v>0.36356995122216001</v>
       </c>
       <c r="D9">
         <v>2007</v>
       </c>
       <c r="E9">
-        <v>8928935.7400000002</v>
+        <v>2177232.0999999898</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
@@ -1087,13 +1087,13 @@
         <v>2008</v>
       </c>
       <c r="B10">
-        <v>9.5741207983480403E-2</v>
+        <v>7.6125061990349505E-2</v>
       </c>
       <c r="D10">
         <v>2008</v>
       </c>
       <c r="E10">
-        <v>3108068.8062499901</v>
+        <v>621615.49025000003</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
@@ -1101,13 +1101,13 @@
         <v>2009</v>
       </c>
       <c r="B11">
-        <v>6.2795613359533403E-2</v>
+        <v>5.1308965445760503E-2</v>
       </c>
       <c r="D11">
         <v>2009</v>
       </c>
       <c r="E11">
-        <v>2346452.9824999901</v>
+        <v>469290.90049999702</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
@@ -1115,13 +1115,13 @@
         <v>2010</v>
       </c>
       <c r="B12">
-        <v>0.39669938023432399</v>
+        <v>0.36885135829130999</v>
       </c>
       <c r="D12">
         <v>2010</v>
       </c>
       <c r="E12">
-        <v>15755967.759999899</v>
+        <v>3547096.2319999998</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -1129,13 +1129,13 @@
         <v>2011</v>
       </c>
       <c r="B13">
-        <v>0.13319858954987299</v>
+        <v>0.123065765496173</v>
       </c>
       <c r="D13">
         <v>2011</v>
       </c>
       <c r="E13">
-        <v>7389007.8512499901</v>
+        <v>1620000.44025</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
@@ -1143,13 +1143,13 @@
         <v>2012</v>
       </c>
       <c r="B14">
-        <v>0.16721615313836199</v>
+        <v>0.142205994544117</v>
       </c>
       <c r="D14">
         <v>2012</v>
       </c>
       <c r="E14">
-        <v>10511646.6924999</v>
+        <v>2102330.3884999901</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
@@ -1157,13 +1157,13 @@
         <v>2013</v>
       </c>
       <c r="B15">
-        <v>0.18279414975914099</v>
+        <v>0.16469698779175801</v>
       </c>
       <c r="D15">
         <v>2013</v>
       </c>
       <c r="E15">
-        <v>13652305.3274999</v>
+        <v>2824310.8679999998</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -1171,13 +1171,13 @@
         <v>2014</v>
       </c>
       <c r="B16">
-        <v>0.161468175040545</v>
+        <v>0.146930661203788</v>
       </c>
       <c r="D16">
         <v>2014</v>
       </c>
       <c r="E16">
-        <v>14263949.9025</v>
+        <v>2934622.3864999898</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
@@ -1185,13 +1185,13 @@
         <v>2015</v>
       </c>
       <c r="B17">
-        <v>8.1952172062853004E-2</v>
+        <v>7.7392093803557202E-2</v>
       </c>
       <c r="D17">
         <v>2015</v>
       </c>
       <c r="E17">
-        <v>8421747.1349999905</v>
+        <v>1775350.6439999901</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
@@ -1199,13 +1199,13 @@
         <v>2016</v>
       </c>
       <c r="B18">
-        <v>8.47629260562274E-2</v>
+        <v>7.6264849975714796E-2</v>
       </c>
       <c r="D18">
         <v>2016</v>
       </c>
       <c r="E18">
-        <v>9424443.8725000005</v>
+        <v>1884888.8705</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
@@ -1213,13 +1213,13 @@
         <v>2017</v>
       </c>
       <c r="B19">
-        <v>9.7909248098272395E-2</v>
+        <v>8.8788747897730405E-2</v>
       </c>
       <c r="D19">
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>11808869.99</v>
+        <v>2361774.44</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
@@ -1227,13 +1227,13 @@
         <v>2018</v>
       </c>
       <c r="B20">
-        <v>3.4941269955623702E-2</v>
+        <v>3.19518063553203E-2</v>
       </c>
       <c r="D20">
         <v>2018</v>
       </c>
       <c r="E20">
-        <v>4626896.1799999904</v>
+        <v>925378.757999997</v>
       </c>
     </row>
   </sheetData>
@@ -1250,7 +1250,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1274,13 +1274,13 @@
         <v>2000</v>
       </c>
       <c r="B2">
-        <v>2.2821747399999999</v>
+        <v>2.11338917</v>
       </c>
       <c r="D2">
         <v>2000</v>
       </c>
       <c r="E2">
-        <v>228217.47399999999</v>
+        <v>211338.91699999999</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -1288,13 +1288,13 @@
         <v>2001</v>
       </c>
       <c r="B3">
-        <v>2.1551198703089098</v>
+        <v>0.45439292126785402</v>
       </c>
       <c r="D3">
         <v>2001</v>
       </c>
       <c r="E3">
-        <v>707348</v>
+        <v>141470.20000000001</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -1302,13 +1302,13 @@
         <v>2002</v>
       </c>
       <c r="B4">
-        <v>1.4349209657022599</v>
+        <v>1.0925924885916101</v>
       </c>
       <c r="D4">
         <v>2002</v>
       </c>
       <c r="E4">
-        <v>1485954.6099999901</v>
+        <v>494735.84</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -1316,13 +1316,13 @@
         <v>2003</v>
       </c>
       <c r="B5">
-        <v>0.86497027679435201</v>
+        <v>0.68995613497840502</v>
       </c>
       <c r="D5">
         <v>2003</v>
       </c>
       <c r="E5">
-        <v>2181039.92499999</v>
+        <v>653764.456249999</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -1330,13 +1330,13 @@
         <v>2004</v>
       </c>
       <c r="B6">
-        <v>0.26144582156250801</v>
+        <v>0.25479241184242502</v>
       </c>
       <c r="D6">
         <v>2004</v>
       </c>
       <c r="E6">
-        <v>1229464.665</v>
+        <v>410098.745</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -1344,13 +1344,13 @@
         <v>2005</v>
       </c>
       <c r="B7">
-        <v>0.297102757802858</v>
+        <v>0.24402992555356701</v>
       </c>
       <c r="D7">
         <v>2005</v>
       </c>
       <c r="E7">
-        <v>1762420.8899999899</v>
+        <v>492852.451999999</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -1358,13 +1358,13 @@
         <v>2006</v>
       </c>
       <c r="B8">
-        <v>0.26333763792938503</v>
+        <v>0.208923876488502</v>
       </c>
       <c r="D8">
         <v>2006</v>
       </c>
       <c r="E8">
-        <v>2026237.12</v>
+        <v>524919.53699999896</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -1372,13 +1372,13 @@
         <v>2007</v>
       </c>
       <c r="B9">
-        <v>0.29095588622137503</v>
+        <v>0.26330961731334701</v>
       </c>
       <c r="D9">
         <v>2007</v>
       </c>
       <c r="E9">
-        <v>2828289.8450000002</v>
+        <v>799779.62999999896</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
@@ -1386,13 +1386,13 @@
         <v>2008</v>
       </c>
       <c r="B10">
-        <v>0.165116790355673</v>
+        <v>0.107998221456015</v>
       </c>
       <c r="D10">
         <v>2008</v>
       </c>
       <c r="E10">
-        <v>2072046.0662499999</v>
+        <v>414409.80524999899</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
@@ -1400,13 +1400,13 @@
         <v>2009</v>
       </c>
       <c r="B11">
-        <v>9.3163656791552807E-2</v>
+        <v>6.9433207976536904E-2</v>
       </c>
       <c r="D11">
         <v>2009</v>
       </c>
       <c r="E11">
-        <v>1473646.6274999899</v>
+        <v>311821.93049999903</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
@@ -1414,13 +1414,13 @@
         <v>2010</v>
       </c>
       <c r="B12">
-        <v>0.35355700700277098</v>
+        <v>0.31396252732124802</v>
       </c>
       <c r="D12">
         <v>2010</v>
       </c>
       <c r="E12">
-        <v>6113521.7499999898</v>
+        <v>1508090.5519999899</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -1428,13 +1428,13 @@
         <v>2011</v>
       </c>
       <c r="B13">
-        <v>0.14250073182674899</v>
+        <v>0.121487065235761</v>
       </c>
       <c r="D13">
         <v>2011</v>
       </c>
       <c r="E13">
-        <v>3335229.0049999901</v>
+        <v>766765.60525000002</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
@@ -1442,13 +1442,13 @@
         <v>2012</v>
       </c>
       <c r="B14">
-        <v>0.26206828530424597</v>
+        <v>0.19800792285131399</v>
       </c>
       <c r="D14">
         <v>2012</v>
       </c>
       <c r="E14">
-        <v>7007764.8174999896</v>
+        <v>1401552.6584999899</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
@@ -1456,13 +1456,13 @@
         <v>2013</v>
       </c>
       <c r="B15">
-        <v>0.17223592424043299</v>
+        <v>0.163822916173572</v>
       </c>
       <c r="D15">
         <v>2013</v>
       </c>
       <c r="E15">
-        <v>5963322.5874999901</v>
+        <v>1417857.5575000001</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -1470,13 +1470,13 @@
         <v>2014</v>
       </c>
       <c r="B16">
-        <v>0.16899229114591699</v>
+        <v>0.14828026604163599</v>
       </c>
       <c r="D16">
         <v>2014</v>
       </c>
       <c r="E16">
-        <v>6858773.8600000003</v>
+        <v>1493579.0419999899</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
@@ -1484,13 +1484,13 @@
         <v>2015</v>
       </c>
       <c r="B17">
-        <v>8.1047729181984496E-2</v>
+        <v>7.2409417411846394E-2</v>
       </c>
       <c r="D17">
         <v>2015</v>
       </c>
       <c r="E17">
-        <v>3854023.26</v>
+        <v>839061.47599999898</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
@@ -1498,13 +1498,13 @@
         <v>2016</v>
       </c>
       <c r="B18">
-        <v>0.119500597674914</v>
+        <v>0.101119424009618</v>
       </c>
       <c r="D18">
         <v>2016</v>
       </c>
       <c r="E18">
-        <v>6143111.9024999999</v>
+        <v>1256590.9705000001</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
@@ -1512,13 +1512,13 @@
         <v>2017</v>
       </c>
       <c r="B19">
-        <v>0.13426489770029101</v>
+        <v>0.11506766529569699</v>
       </c>
       <c r="D19">
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>7726897.7299999902</v>
+        <v>1574515.98</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
@@ -1526,13 +1526,13 @@
         <v>2018</v>
       </c>
       <c r="B20">
-        <v>3.9289000263264297E-2</v>
+        <v>3.4970030943498397E-2</v>
       </c>
       <c r="D20">
         <v>2018</v>
       </c>
       <c r="E20">
-        <v>2564650.25999999</v>
+        <v>533569.51699999697</v>
       </c>
     </row>
   </sheetData>
@@ -1548,8 +1548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93E57596-960F-4E99-AC6B-382DB78CC0BA}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1573,13 +1573,13 @@
         <v>2000</v>
       </c>
       <c r="B2">
-        <v>0.89251912</v>
+        <v>0.83292010000000005</v>
       </c>
       <c r="D2">
         <v>2000</v>
       </c>
       <c r="E2">
-        <v>89251.911999999997</v>
+        <v>83292.009999999995</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -1587,13 +1587,13 @@
         <v>2001</v>
       </c>
       <c r="B3">
-        <v>1.11214226464459</v>
+        <v>0.38591202093315402</v>
       </c>
       <c r="D3">
         <v>2001</v>
       </c>
       <c r="E3">
-        <v>210475.05</v>
+        <v>70734.59</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -1601,13 +1601,13 @@
         <v>2002</v>
       </c>
       <c r="B4">
-        <v>0.59584667195904595</v>
+        <v>0.58718386184753801</v>
       </c>
       <c r="D4">
         <v>2002</v>
       </c>
       <c r="E4">
-        <v>238175.98</v>
+        <v>149160.32000000001</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -1615,13 +1615,13 @@
         <v>2003</v>
       </c>
       <c r="B5">
-        <v>0.46574489697211602</v>
+        <v>0.399923812012552</v>
       </c>
       <c r="D5">
         <v>2003</v>
       </c>
       <c r="E5">
-        <v>297100.03999999899</v>
+        <v>161244.04999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -1629,13 +1629,13 @@
         <v>2004</v>
       </c>
       <c r="B6">
-        <v>0.13657583179772101</v>
+        <v>0.13025793924808901</v>
       </c>
       <c r="D6">
         <v>2004</v>
       </c>
       <c r="E6">
-        <v>127698.81</v>
+        <v>73521.615000000005</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -1643,13 +1643,13 @@
         <v>2005</v>
       </c>
       <c r="B7">
-        <v>0.21322148575053801</v>
+        <v>0.17472411684012501</v>
       </c>
       <c r="D7">
         <v>2005</v>
       </c>
       <c r="E7">
-        <v>226590.85499999899</v>
+        <v>111465.702</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -1657,13 +1657,13 @@
         <v>2006</v>
       </c>
       <c r="B8">
-        <v>0.22988499987931699</v>
+        <v>0.176348656407953</v>
       </c>
       <c r="D8">
         <v>2006</v>
       </c>
       <c r="E8">
-        <v>296389.03999999899</v>
+        <v>132158.908</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -1671,13 +1671,13 @@
         <v>2007</v>
       </c>
       <c r="B9">
-        <v>0.20061719360702901</v>
+        <v>0.181735814978743</v>
       </c>
       <c r="D9">
         <v>2007</v>
       </c>
       <c r="E9">
-        <v>318115.01</v>
+        <v>160214.15</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
@@ -1685,13 +1685,13 @@
         <v>2008</v>
       </c>
       <c r="B10">
-        <v>0.28535806940734398</v>
+        <v>0.17909591003561201</v>
       </c>
       <c r="D10">
         <v>2008</v>
       </c>
       <c r="E10">
-        <v>543263.74999999895</v>
+        <v>186580.56899999999</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
@@ -1699,13 +1699,13 @@
         <v>2009</v>
       </c>
       <c r="B11">
-        <v>0.13457917557926399</v>
+        <v>8.9716017233032005E-2</v>
       </c>
       <c r="D11">
         <v>2009</v>
       </c>
       <c r="E11">
-        <v>348822.80999999901</v>
+        <v>116729.91499999999</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
@@ -1713,13 +1713,13 @@
         <v>2010</v>
       </c>
       <c r="B12">
-        <v>0.2467489284378</v>
+        <v>0.20174792989969001</v>
       </c>
       <c r="D12">
         <v>2010</v>
       </c>
       <c r="E12">
-        <v>725633.12</v>
+        <v>286045.16200000001</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -1727,13 +1727,13 @@
         <v>2011</v>
       </c>
       <c r="B13">
-        <v>0.150418579323948</v>
+        <v>0.10002268376244999</v>
       </c>
       <c r="D13">
         <v>2011</v>
       </c>
       <c r="E13">
-        <v>551495.92500000005</v>
+        <v>170426.61</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
@@ -1741,13 +1741,13 @@
         <v>2012</v>
       </c>
       <c r="B14">
-        <v>0.20250813984405799</v>
+        <v>0.174058906413288</v>
       </c>
       <c r="D14">
         <v>2012</v>
       </c>
       <c r="E14">
-        <v>854159.93500000006</v>
+        <v>326239.68849999999</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
@@ -1755,13 +1755,13 @@
         <v>2013</v>
       </c>
       <c r="B15">
-        <v>8.9273295809132402E-2</v>
+        <v>8.8400731159372303E-2</v>
       </c>
       <c r="D15">
         <v>2013</v>
       </c>
       <c r="E15">
-        <v>487252.04</v>
+        <v>202264.93</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -1769,13 +1769,13 @@
         <v>2014</v>
       </c>
       <c r="B16">
-        <v>0.20113472919233</v>
+        <v>0.17983927732792901</v>
       </c>
       <c r="D16">
         <v>2014</v>
       </c>
       <c r="E16">
-        <v>1195793.0349999899</v>
+        <v>447855.69900000002</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
@@ -1783,13 +1783,13 @@
         <v>2015</v>
       </c>
       <c r="B17">
-        <v>0.117379732503208</v>
+        <v>8.9596879109426E-2</v>
       </c>
       <c r="D17">
         <v>2015</v>
       </c>
       <c r="E17">
-        <v>844516.83</v>
+        <v>264213.04599999997</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
@@ -1797,13 +1797,13 @@
         <v>2016</v>
       </c>
       <c r="B18">
-        <v>0.144904309640812</v>
+        <v>0.114994552833014</v>
       </c>
       <c r="D18">
         <v>2016</v>
       </c>
       <c r="E18">
-        <v>1164923.17499999</v>
+        <v>369491.53649999999</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
@@ -1811,13 +1811,13 @@
         <v>2017</v>
       </c>
       <c r="B19">
-        <v>0.12875413227320301</v>
+        <v>0.110112365580934</v>
       </c>
       <c r="D19">
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>1185076.3999999999</v>
+        <v>394490.06</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
@@ -1825,13 +1825,13 @@
         <v>2018</v>
       </c>
       <c r="B20">
-        <v>9.7517824324615102E-2</v>
+        <v>5.3562700261657901E-2</v>
       </c>
       <c r="D20">
         <v>2018</v>
       </c>
       <c r="E20">
-        <v>1013137.8249999901</v>
+        <v>213024.41200000001</v>
       </c>
     </row>
   </sheetData>
